--- a/data/trans_orig/IP18E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D06C0AF-7320-4786-8565-A07E093F87BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE685D2-ABE5-4E9F-B924-BC1AB6A88ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AEA91B87-D84C-4A7C-9706-FE433BB25110}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{891962E3-599F-4517-B558-9532D9AC6E25}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -179,6 +179,105 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -275,105 +374,6 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
     <t>93,04%</t>
   </si>
   <si>
@@ -545,6 +545,78 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>94,51%</t>
   </si>
   <si>
@@ -629,78 +701,6 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>94,66%</t>
   </si>
   <si>
@@ -854,6 +854,72 @@
     <t>3,25%</t>
   </si>
   <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>93,95%</t>
   </si>
   <si>
@@ -920,72 +986,6 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>94,11%</t>
   </si>
   <si>
@@ -1118,6 +1118,69 @@
     <t>1,92%</t>
   </si>
   <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
     <t>95,21%</t>
   </si>
   <si>
@@ -1194,69 +1257,6 @@
   </si>
   <si>
     <t>2,39%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
   </si>
   <si>
     <t>93,84%</t>
@@ -1729,7 +1729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7DE180-03F4-40C6-AD89-31C76AFBDC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464C943F-F654-4C1B-96F4-E89B41F5D242}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,10 +2104,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="D9" s="7">
-        <v>206371</v>
+        <v>183835</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>47</v>
@@ -2119,10 +2119,10 @@
         <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="I9" s="7">
-        <v>200494</v>
+        <v>170324</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -2134,10 +2134,10 @@
         <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>607</v>
+        <v>528</v>
       </c>
       <c r="N9" s="7">
-        <v>406864</v>
+        <v>354159</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>53</v>
@@ -2155,10 +2155,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>7438</v>
+        <v>3086</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>56</v>
@@ -2170,10 +2170,10 @@
         <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>4541</v>
+        <v>5313</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>59</v>
@@ -2185,10 +2185,10 @@
         <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>11979</v>
+        <v>8399</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>62</v>
@@ -2206,10 +2206,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>7252</v>
+        <v>5321</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>65</v>
@@ -2221,10 +2221,10 @@
         <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>8996</v>
+        <v>2870</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>68</v>
@@ -2236,10 +2236,10 @@
         <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>16248</v>
+        <v>8191</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>71</v>
@@ -2257,49 +2257,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>683</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,10 +2308,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="D13" s="7">
-        <v>221061</v>
+        <v>192927</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -2323,10 +2323,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="I13" s="7">
-        <v>214715</v>
+        <v>178507</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -2338,10 +2338,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="7">
-        <v>649</v>
+        <v>555</v>
       </c>
       <c r="N13" s="7">
-        <v>435775</v>
+        <v>371434</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -2355,55 +2355,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="D14" s="7">
-        <v>183835</v>
+        <v>206371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I14" s="7">
-        <v>170324</v>
+        <v>200494</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="N14" s="7">
-        <v>354159</v>
+        <v>406864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,49 +2412,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>3086</v>
+        <v>7438</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>5313</v>
+        <v>4541</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N15" s="7">
-        <v>8399</v>
+        <v>11979</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,49 +2463,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>5321</v>
+        <v>7252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>2870</v>
+        <v>8996</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>8191</v>
+        <v>16248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,31 +2514,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>108</v>
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>109</v>
@@ -2565,10 +2565,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="D18" s="7">
-        <v>192927</v>
+        <v>221061</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -2580,10 +2580,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="I18" s="7">
-        <v>178507</v>
+        <v>214715</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -2595,10 +2595,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>555</v>
+        <v>649</v>
       </c>
       <c r="N18" s="7">
-        <v>371434</v>
+        <v>435775</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -2705,7 +2705,7 @@
         <v>39421</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>126</v>
@@ -2798,7 +2798,7 @@
         <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2883,7 +2883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5ADDF0-10A8-43B0-81FB-62E0DFCDC3C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C1186D-7DCE-4B93-9C9E-3CEE406BEE0C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3142,7 +3142,7 @@
         <v>165</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>166</v>
@@ -3166,7 +3166,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3258,49 +3258,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D9" s="7">
-        <v>237635</v>
+        <v>215732</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>289</v>
+      </c>
+      <c r="I9" s="7">
+        <v>206740</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="7">
-        <v>313</v>
-      </c>
-      <c r="I9" s="7">
-        <v>220425</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>586</v>
+      </c>
+      <c r="N9" s="7">
+        <v>422472</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="7">
-        <v>662</v>
-      </c>
-      <c r="N9" s="7">
-        <v>458060</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,49 +3309,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>8677</v>
+        <v>8795</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7424</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="7">
         <v>22</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5348</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>16220</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="M10" s="7">
-        <v>21</v>
-      </c>
-      <c r="N10" s="7">
-        <v>14025</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,49 +3360,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>5130</v>
+        <v>4097</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2721</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4696</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" s="7">
+        <v>6817</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9826</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,37 +3423,37 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1581</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1581</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,10 +3462,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="D13" s="7">
-        <v>251442</v>
+        <v>228624</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -3477,10 +3477,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="I13" s="7">
-        <v>232050</v>
+        <v>216885</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -3492,10 +3492,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="7">
-        <v>700</v>
+        <v>618</v>
       </c>
       <c r="N13" s="7">
-        <v>483492</v>
+        <v>445509</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -3509,55 +3509,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="D14" s="7">
-        <v>215732</v>
+        <v>237635</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="7">
+        <v>313</v>
+      </c>
+      <c r="I14" s="7">
+        <v>220425</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="7">
-        <v>289</v>
-      </c>
-      <c r="I14" s="7">
-        <v>206740</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>662</v>
+      </c>
+      <c r="N14" s="7">
+        <v>458060</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M14" s="7">
-        <v>586</v>
-      </c>
-      <c r="N14" s="7">
-        <v>422472</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,49 +3566,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>8795</v>
+        <v>8677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5348</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H15" s="7">
-        <v>10</v>
-      </c>
-      <c r="I15" s="7">
-        <v>7424</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>21</v>
+      </c>
+      <c r="N15" s="7">
+        <v>14025</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M15" s="7">
-        <v>22</v>
-      </c>
-      <c r="N15" s="7">
-        <v>16220</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,49 +3617,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>4097</v>
+        <v>5130</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4696</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>15</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9826</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2721</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6817</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,34 +3680,34 @@
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1581</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>219</v>
@@ -3719,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="D18" s="7">
-        <v>228624</v>
+        <v>251442</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -3734,10 +3734,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="I18" s="7">
-        <v>216885</v>
+        <v>232050</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -3749,10 +3749,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="N18" s="7">
-        <v>445509</v>
+        <v>483492</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -3910,7 +3910,7 @@
         <v>25983</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>241</v>
@@ -4037,7 +4037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2206D6B4-1A59-4380-81B9-90CAF7CBD9DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290A5009-7D16-48D2-B4AF-457614D60A8F}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4335,7 +4335,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,10 +4412,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="7">
-        <v>230076</v>
+        <v>213936</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>271</v>
@@ -4424,37 +4424,37 @@
         <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="H9" s="7">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="I9" s="7">
-        <v>227011</v>
+        <v>200538</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="N9" s="7">
-        <v>457087</v>
+        <v>414474</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,49 +4463,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>12497</v>
+        <v>7809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="7">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9339</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10772</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>27</v>
+      </c>
+      <c r="N10" s="7">
+        <v>17148</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="M10" s="7">
-        <v>33</v>
-      </c>
-      <c r="N10" s="7">
-        <v>23269</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="P10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,40 +4514,40 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>2309</v>
+        <v>3126</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>2671</v>
+        <v>3656</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>4979</v>
+        <v>6781</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>291</v>
@@ -4556,7 +4556,7 @@
         <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4577,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D13" s="7">
-        <v>244881</v>
+        <v>224870</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -4631,10 +4631,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I13" s="7">
-        <v>240454</v>
+        <v>213533</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -4646,10 +4646,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="7">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="N13" s="7">
-        <v>485335</v>
+        <v>438403</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -4663,16 +4663,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D14" s="7">
-        <v>213936</v>
+        <v>230076</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>293</v>
@@ -4681,37 +4681,37 @@
         <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="7">
+        <v>317</v>
+      </c>
+      <c r="I14" s="7">
+        <v>227011</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H14" s="7">
-        <v>306</v>
-      </c>
-      <c r="I14" s="7">
-        <v>200538</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>626</v>
+      </c>
+      <c r="N14" s="7">
+        <v>457087</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="M14" s="7">
-        <v>614</v>
-      </c>
-      <c r="N14" s="7">
-        <v>414474</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +4720,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>7809</v>
+        <v>12497</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="H15" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>9339</v>
+        <v>10772</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M15" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N15" s="7">
-        <v>17148</v>
+        <v>23269</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,40 +4771,40 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3126</v>
+        <v>2309</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>3656</v>
+        <v>2671</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>6781</v>
+        <v>4979</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>313</v>
@@ -4813,7 +4813,7 @@
         <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4873,10 +4873,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D18" s="7">
-        <v>224870</v>
+        <v>244881</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -4888,10 +4888,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="I18" s="7">
-        <v>213533</v>
+        <v>240454</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -4903,10 +4903,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="N18" s="7">
-        <v>438403</v>
+        <v>485335</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -4935,10 +4935,10 @@
         <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>915</v>
@@ -4968,7 +4968,7 @@
         <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,10 +5034,10 @@
         <v>9326</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>157</v>
@@ -5052,7 +5052,7 @@
         <v>329</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>330</v>
@@ -5067,7 +5067,7 @@
         <v>331</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>332</v>
@@ -5191,7 +5191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A8811C-17B9-43BA-8069-E6F2199A3E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B2CDF3-BA6A-4B8B-A49D-E725811851E2}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5366,7 +5366,7 @@
         <v>1016</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>41</v>
@@ -5566,49 +5566,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>57797</v>
+        <v>34875</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>46</v>
+      </c>
+      <c r="I9" s="7">
+        <v>30954</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H9" s="7">
-        <v>51</v>
-      </c>
-      <c r="I9" s="7">
-        <v>35762</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>94</v>
+      </c>
+      <c r="N9" s="7">
+        <v>65829</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="M9" s="7">
-        <v>125</v>
-      </c>
-      <c r="N9" s="7">
-        <v>93559</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,49 +5617,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1485</v>
+        <v>1908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>368</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1970</v>
+        <v>593</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2501</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3456</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,46 +5671,46 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1420</v>
+        <v>1397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3189</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4361</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4586</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5781</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,37 +5731,37 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>391</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,10 +5770,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -5785,10 +5785,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>42484</v>
+        <v>34736</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -5800,10 +5800,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N13" s="7">
-        <v>103186</v>
+        <v>72917</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -5817,55 +5817,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7">
-        <v>34875</v>
+        <v>57797</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H14" s="7">
+        <v>51</v>
+      </c>
+      <c r="I14" s="7">
+        <v>35762</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>125</v>
+      </c>
+      <c r="N14" s="7">
+        <v>93559</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="H14" s="7">
-        <v>46</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30954</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M14" s="7">
-        <v>94</v>
-      </c>
-      <c r="N14" s="7">
-        <v>65829</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,49 +5874,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1485</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="D15" s="7">
-        <v>1908</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
       <c r="I15" s="7">
-        <v>593</v>
+        <v>1970</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="7">
-        <v>2501</v>
+        <v>3456</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,46 +5928,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1397</v>
+        <v>1420</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4361</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5781</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3189</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4586</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,34 +5988,34 @@
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>391</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>391</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>405</v>
@@ -6027,10 +6027,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -6042,10 +6042,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7">
-        <v>34736</v>
+        <v>42484</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -6057,10 +6057,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N18" s="7">
-        <v>72917</v>
+        <v>103186</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -6167,7 +6167,7 @@
         <v>8849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>419</v>
@@ -6191,7 +6191,7 @@
         <v>421</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>422</v>

--- a/data/trans_orig/IP18E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE685D2-ABE5-4E9F-B924-BC1AB6A88ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C19334-3800-4F91-8EF6-EE2A3BB355B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{891962E3-599F-4517-B558-9532D9AC6E25}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1831C239-005E-4D71-B609-6C3B79745099}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="515">
   <si>
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -68,1276 +68,1522 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Médico privado/particular</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>Médico privado/particular</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2015 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>84,67%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1594,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1444,39 +1690,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1528,7 +1774,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1639,13 +1885,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1654,6 +1893,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1718,19 +1964,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464C943F-F654-4C1B-96F4-E89B41F5D242}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007EF3EA-4B50-428A-A4ED-C61944681228}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1847,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>180429</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1862,184 +2128,184 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>180270</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>545</v>
-      </c>
-      <c r="N4" s="7">
-        <v>360698</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5473</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2471</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11236</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>12</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7944</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7807</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>29</v>
-      </c>
-      <c r="N5" s="7">
-        <v>19042</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5967</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2411</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7673</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>13</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8378</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7683</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>23</v>
-      </c>
-      <c r="N6" s="7">
-        <v>15356</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7">
+        <v>144</v>
+      </c>
+      <c r="D7" s="7">
+        <v>95593</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
+        <v>145</v>
+      </c>
+      <c r="I7" s="7">
+        <v>95771</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>289</v>
+      </c>
+      <c r="N7" s="7">
+        <v>191363</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>44</v>
@@ -2051,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>199338</v>
+        <v>107033</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -2066,10 +2332,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>298</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>195760</v>
+        <v>100653</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2081,10 +2347,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>597</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>395097</v>
+        <v>207686</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -2104,199 +2370,199 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>183835</v>
+        <v>685</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="7">
-        <v>250</v>
-      </c>
-      <c r="I9" s="7">
-        <v>170324</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>685</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="7">
-        <v>528</v>
-      </c>
-      <c r="N9" s="7">
-        <v>354159</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>3086</v>
+        <v>6066</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7411</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
+        <v>13477</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5313</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="7">
-        <v>13</v>
-      </c>
-      <c r="N10" s="7">
-        <v>8399</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>5321</v>
+        <v>7776</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8686</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>25</v>
+      </c>
+      <c r="N11" s="7">
+        <v>16462</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2870</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8191</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>685</v>
+        <v>215021</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
+        <v>315</v>
+      </c>
+      <c r="I12" s="7">
+        <v>211401</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>639</v>
+      </c>
+      <c r="N12" s="7">
+        <v>426422</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>685</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>78</v>
@@ -2308,10 +2574,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="D13" s="7">
-        <v>192927</v>
+        <v>229548</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -2323,10 +2589,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="I13" s="7">
-        <v>178507</v>
+        <v>227498</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -2338,10 +2604,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="7">
-        <v>555</v>
+        <v>686</v>
       </c>
       <c r="N13" s="7">
-        <v>371434</v>
+        <v>457046</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -2361,202 +2627,202 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>206371</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H14" s="7">
-        <v>296</v>
-      </c>
-      <c r="I14" s="7">
-        <v>200494</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="7">
-        <v>607</v>
-      </c>
-      <c r="N14" s="7">
-        <v>406864</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>7438</v>
+        <v>5197</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2991</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="7">
+        <v>12</v>
+      </c>
+      <c r="N15" s="7">
+        <v>8188</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H15" s="7">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4541</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="7">
-        <v>18</v>
-      </c>
-      <c r="N15" s="7">
-        <v>11979</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>7252</v>
+        <v>1220</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>8996</v>
+        <v>3861</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>16248</v>
+        <v>5081</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>106425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="I17" s="7">
-        <v>683</v>
+        <v>96623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="N17" s="7">
-        <v>683</v>
+        <v>203047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,10 +2831,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="D18" s="7">
-        <v>221061</v>
+        <v>112842</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -2580,10 +2846,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>317</v>
+        <v>154</v>
       </c>
       <c r="I18" s="7">
-        <v>214715</v>
+        <v>103474</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -2595,10 +2861,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>649</v>
+        <v>323</v>
       </c>
       <c r="N18" s="7">
-        <v>435775</v>
+        <v>216315</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -2612,208 +2878,208 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>570635</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>683</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>683</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="7">
-        <v>820</v>
-      </c>
-      <c r="I19" s="7">
-        <v>551087</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1680</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1121722</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>21760</v>
+        <v>3510</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="7">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6676</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="7">
+        <v>14</v>
+      </c>
+      <c r="N20" s="7">
+        <v>10186</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="7">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7">
-        <v>17661</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="7">
-        <v>60</v>
-      </c>
-      <c r="N20" s="7">
-        <v>39421</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>20246</v>
+        <v>6796</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2704</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="7">
+        <v>14</v>
+      </c>
+      <c r="N21" s="7">
+        <v>9500</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="7">
-        <v>30</v>
-      </c>
-      <c r="I21" s="7">
-        <v>19550</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" s="7">
-        <v>59</v>
-      </c>
-      <c r="N21" s="7">
-        <v>39796</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="D22" s="7">
-        <v>685</v>
+        <v>153597</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="7">
+        <v>217</v>
+      </c>
+      <c r="I22" s="7">
+        <v>147293</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M22" s="7">
+        <v>449</v>
+      </c>
+      <c r="N22" s="7">
+        <v>300889</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>683</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1368</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,55 +3088,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>247</v>
+      </c>
+      <c r="D23" s="7">
+        <v>163903</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
+        <v>231</v>
+      </c>
+      <c r="I23" s="7">
+        <v>157357</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="7">
+        <v>478</v>
+      </c>
+      <c r="N23" s="7">
+        <v>321259</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>685</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>683</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1368</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7">
+        <v>20246</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="7">
+        <v>30</v>
+      </c>
+      <c r="I25" s="7">
+        <v>19550</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="7">
+        <v>59</v>
+      </c>
+      <c r="N25" s="7">
+        <v>39796</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7">
+        <v>21760</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>27</v>
+      </c>
+      <c r="I26" s="7">
+        <v>17661</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="7">
+        <v>60</v>
+      </c>
+      <c r="N26" s="7">
+        <v>39421</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7">
+        <v>860</v>
+      </c>
+      <c r="D27" s="7">
+        <v>570635</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="7">
+        <v>820</v>
+      </c>
+      <c r="I27" s="7">
+        <v>551087</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1680</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1121722</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>923</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>613326</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
         <v>878</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>588981</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="7">
         <v>1801</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1202307</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>45</v>
+      <c r="O28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2883,8 +3412,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C1186D-7DCE-4B93-9C9E-3CEE406BEE0C}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E7B517-478E-47DD-9563-3A8D75A8C9C9}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2900,7 +3429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3001,202 +3530,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>220433</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>203651</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>424084</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>7877</v>
+        <v>2754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>7513</v>
+        <v>4344</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>15389</v>
+        <v>7098</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>3424</v>
+        <v>3667</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>5915</v>
+        <v>5597</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>9340</v>
+        <v>9264</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>135453</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>131558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>267011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,10 +3734,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="D8" s="7">
-        <v>231734</v>
+        <v>141874</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -3220,10 +3749,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I8" s="7">
-        <v>217079</v>
+        <v>141498</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -3235,10 +3764,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>653</v>
+        <v>412</v>
       </c>
       <c r="N8" s="7">
-        <v>448813</v>
+        <v>283373</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -3258,202 +3787,202 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>215732</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H9" s="7">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>206740</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M9" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>422472</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>8795</v>
+        <v>3397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>7424</v>
+        <v>2882</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>16220</v>
+        <v>6279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>4097</v>
+        <v>9100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>2721</v>
+        <v>5687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>6817</v>
+        <v>14787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>243329</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>213139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>456469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,10 +3991,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="D13" s="7">
-        <v>228624</v>
+        <v>255826</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -3477,10 +4006,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="I13" s="7">
-        <v>216885</v>
+        <v>221709</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -3492,10 +4021,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="7">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="N13" s="7">
-        <v>445509</v>
+        <v>477535</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -3515,202 +4044,202 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>237635</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>313</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>220425</v>
+        <v>926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
-        <v>662</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>458060</v>
+        <v>926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>8677</v>
+        <v>2946</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2835</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M15" s="7">
         <v>8</v>
       </c>
-      <c r="I15" s="7">
-        <v>5348</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M15" s="7">
-        <v>21</v>
-      </c>
       <c r="N15" s="7">
-        <v>14025</v>
+        <v>5781</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>5130</v>
+        <v>7158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>4696</v>
+        <v>4417</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>9826</v>
+        <v>11575</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>139194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="I17" s="7">
-        <v>1581</v>
+        <v>142987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="N17" s="7">
-        <v>1581</v>
+        <v>282181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,10 +4248,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="D18" s="7">
-        <v>251442</v>
+        <v>149298</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -3734,10 +4263,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="I18" s="7">
-        <v>232050</v>
+        <v>151165</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -3749,10 +4278,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>700</v>
+        <v>429</v>
       </c>
       <c r="N18" s="7">
-        <v>483492</v>
+        <v>300462</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -3766,208 +4295,208 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>673800</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
-        <v>909</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>630816</v>
+        <v>656</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
-        <v>1866</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1304616</v>
+        <v>656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>25349</v>
+        <v>3554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>20285</v>
+        <v>3271</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>45633</v>
+        <v>6825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>12651</v>
+        <v>5424</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="H21" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>13332</v>
+        <v>4583</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="M21" s="7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>25983</v>
+        <v>10008</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>155824</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="I22" s="7">
-        <v>1581</v>
+        <v>143132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>430</v>
       </c>
       <c r="N22" s="7">
-        <v>1581</v>
+        <v>298956</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,55 +4505,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>242</v>
+      </c>
+      <c r="D23" s="7">
+        <v>164802</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
+        <v>215</v>
+      </c>
+      <c r="I23" s="7">
+        <v>151642</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="7">
+        <v>457</v>
+      </c>
+      <c r="N23" s="7">
+        <v>316444</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1581</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1581</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7">
+        <v>12651</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="7">
+        <v>19</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13332</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="7">
+        <v>38</v>
+      </c>
+      <c r="N25" s="7">
+        <v>25983</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7">
+        <v>25349</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H26" s="7">
+        <v>29</v>
+      </c>
+      <c r="I26" s="7">
+        <v>20285</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M26" s="7">
+        <v>65</v>
+      </c>
+      <c r="N26" s="7">
+        <v>45633</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7">
+        <v>957</v>
+      </c>
+      <c r="D27" s="7">
+        <v>673800</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27" s="7">
+        <v>909</v>
+      </c>
+      <c r="I27" s="7">
+        <v>630816</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1866</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1304616</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>1012</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>711800</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
         <v>959</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>666014</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="7">
         <v>1971</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1377814</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>45</v>
+      <c r="O28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4037,8 +4829,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290A5009-7D16-48D2-B4AF-457614D60A8F}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8C3D77-0375-41DB-92F0-FA8AD7873DF9}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4054,7 +4846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4155,202 +4947,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>185647</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>180787</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>366433</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>9770</v>
+        <v>2566</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>8297</v>
+        <v>2509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>18067</v>
+        <v>5075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>3891</v>
+        <v>6514</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>3743</v>
+        <v>6006</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N6" s="7">
-        <v>7635</v>
+        <v>12520</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>107083</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>118388</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>225471</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,10 +5151,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="D8" s="7">
-        <v>199308</v>
+        <v>116162</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -4374,10 +5166,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="I8" s="7">
-        <v>192827</v>
+        <v>126903</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -4389,10 +5181,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>612</v>
+        <v>378</v>
       </c>
       <c r="N8" s="7">
-        <v>392135</v>
+        <v>243065</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -4412,202 +5204,202 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>213936</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>200538</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>414474</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>7809</v>
+        <v>3181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>9339</v>
+        <v>2518</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>17148</v>
+        <v>5699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>3126</v>
+        <v>8962</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>3656</v>
+        <v>7758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>6781</v>
+        <v>16720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>222847</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>338</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>184533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>407380</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>167</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,10 +5408,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="D13" s="7">
-        <v>224870</v>
+        <v>234990</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -4631,10 +5423,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="I13" s="7">
-        <v>213533</v>
+        <v>194809</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -4646,10 +5438,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="7">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N13" s="7">
-        <v>438403</v>
+        <v>429799</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -4669,202 +5461,202 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>230076</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>227011</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>457087</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>12497</v>
+        <v>1270</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>10772</v>
+        <v>4425</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>304</v>
+        <v>180</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="M15" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N15" s="7">
-        <v>23269</v>
+        <v>5696</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>2309</v>
+        <v>7457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>2671</v>
+        <v>7357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>4979</v>
+        <v>14815</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>160620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>159508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>320128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,10 +5665,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="D18" s="7">
-        <v>244881</v>
+        <v>169347</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -4888,10 +5680,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="I18" s="7">
-        <v>240454</v>
+        <v>171291</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -4903,10 +5695,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>666</v>
+        <v>481</v>
       </c>
       <c r="N18" s="7">
-        <v>485335</v>
+        <v>340638</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -4920,208 +5712,208 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>629659</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>608336</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1237994</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>30075</v>
+        <v>2309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>28409</v>
+        <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>58484</v>
+        <v>2926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>9326</v>
+        <v>7142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="H21" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>10070</v>
+        <v>7288</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>373</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="M21" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N21" s="7">
-        <v>19395</v>
+        <v>14430</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>139109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>145905</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>285015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,55 +5922,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>200</v>
+      </c>
+      <c r="D23" s="7">
+        <v>148560</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
+        <v>218</v>
+      </c>
+      <c r="I23" s="7">
+        <v>153810</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="7">
+        <v>418</v>
+      </c>
+      <c r="N23" s="7">
+        <v>302371</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9326</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="7">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7">
+        <v>10070</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M25" s="7">
+        <v>30</v>
+      </c>
+      <c r="N25" s="7">
+        <v>19395</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7">
+        <v>30075</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" s="7">
+        <v>43</v>
+      </c>
+      <c r="I26" s="7">
+        <v>28409</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="7">
+        <v>89</v>
+      </c>
+      <c r="N26" s="7">
+        <v>58484</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7">
+        <v>896</v>
+      </c>
+      <c r="D27" s="7">
+        <v>629659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H27" s="7">
+        <v>915</v>
+      </c>
+      <c r="I27" s="7">
+        <v>608336</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1811</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1237994</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>956</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>669060</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
         <v>974</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>646814</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="7">
         <v>1930</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1315873</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>45</v>
+      <c r="O28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5191,8 +6246,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B2CDF3-BA6A-4B8B-A49D-E725811851E2}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A45872-4F5F-4901-B7A4-E0BD07EB5723}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5208,7 +6263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5309,202 +6364,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25962</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>17885</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>88</v>
-      </c>
-      <c r="N4" s="7">
-        <v>43847</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1876</v>
+        <v>1929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>67</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>2892</v>
+        <v>1929</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>565</v>
+        <v>394</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2941</v>
+        <v>1029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>3506</v>
+        <v>1424</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>17277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>420</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>13373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>422</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>423</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>30649</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,10 +6568,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7">
-        <v>27543</v>
+        <v>17671</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -5528,10 +6583,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>22702</v>
+        <v>16331</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -5543,10 +6598,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N8" s="7">
-        <v>50245</v>
+        <v>34002</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -5566,202 +6621,202 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>34875</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="H9" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>30954</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="M9" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>65829</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1908</v>
+        <v>1963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>593</v>
+        <v>2054</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>430</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2501</v>
+        <v>4017</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1990</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1397</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
+        <v>1440</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M11" s="7">
         <v>5</v>
       </c>
-      <c r="I11" s="7">
-        <v>3189</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
       <c r="N11" s="7">
-        <v>4586</v>
+        <v>3430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>28662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>441</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>24456</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>443</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>445</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>53118</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>447</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +6828,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>38180</v>
+        <v>32614</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -5785,10 +6840,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>34736</v>
+        <v>27950</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -5800,10 +6855,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>72917</v>
+        <v>60564</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -5823,202 +6878,202 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>57797</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>35762</v>
+        <v>391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>93559</v>
+        <v>391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>1485</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="7">
-        <v>1970</v>
+        <v>4592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>286</v>
+        <v>452</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="M15" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" s="7">
-        <v>3456</v>
+        <v>4592</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>70</v>
+        <v>454</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>539</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>1420</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
       <c r="I16" s="7">
-        <v>4361</v>
+        <v>1374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>5781</v>
+        <v>1913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>34521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>391</v>
+        <v>24113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="N17" s="7">
-        <v>391</v>
+        <v>58634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,10 +7082,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>60702</v>
+        <v>35060</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -6042,10 +7097,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I18" s="7">
-        <v>42484</v>
+        <v>30469</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -6057,10 +7112,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N18" s="7">
-        <v>103186</v>
+        <v>65529</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -6074,208 +7129,208 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>118634</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>84601</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>203235</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>4409</v>
+        <v>1420</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>4440</v>
+        <v>1917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>8849</v>
+        <v>3336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>3382</v>
+        <v>1486</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="H21" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>10492</v>
+        <v>597</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="M21" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>13874</v>
+        <v>2082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>38176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>391</v>
+        <v>22660</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="N22" s="7">
-        <v>391</v>
+        <v>60835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,55 +7339,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>41081</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
+        <v>37</v>
+      </c>
+      <c r="I23" s="7">
+        <v>25173</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="7">
+        <v>90</v>
+      </c>
+      <c r="N23" s="7">
+        <v>66253</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>391</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>391</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3382</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H25" s="7">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>10492</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="M25" s="7">
+        <v>19</v>
+      </c>
+      <c r="N25" s="7">
+        <v>13874</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4409</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H26" s="7">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4440</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="M26" s="7">
+        <v>14</v>
+      </c>
+      <c r="N26" s="7">
+        <v>8849</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7">
+        <v>176</v>
+      </c>
+      <c r="D27" s="7">
+        <v>118634</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H27" s="7">
+        <v>131</v>
+      </c>
+      <c r="I27" s="7">
+        <v>84601</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="M27" s="7">
+        <v>307</v>
+      </c>
+      <c r="N27" s="7">
+        <v>203235</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>188</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>126425</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
         <v>153</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>99923</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="7">
         <v>341</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>226348</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>45</v>
+      <c r="O28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP18E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18E-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C19334-3800-4F91-8EF6-EE2A3BB355B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33434B37-6F1F-4A24-A767-F4AA898DAE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1831C239-005E-4D71-B609-6C3B79745099}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EA2A48C-9ECF-4188-998B-804CFE98CD64}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="520">
   <si>
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -95,1495 +95,1510 @@
     <t>5,11%</t>
   </si>
   <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>6,67%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>89,71%</t>
+    <t>89,74%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,9%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007EF3EA-4B50-428A-A4ED-C61944681228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D36ECF-BB1C-4A0A-BF96-3EAA53482B12}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2741,7 +2756,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2750,13 +2765,13 @@
         <v>3861</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2765,13 +2780,13 @@
         <v>5081</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2801,13 @@
         <v>106425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
@@ -2801,13 +2816,13 @@
         <v>96623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -2816,13 +2831,13 @@
         <v>203047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2893,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2896,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2905,13 +2920,13 @@
         <v>683</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2920,13 +2935,13 @@
         <v>683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2956,13 @@
         <v>3510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2956,13 +2971,13 @@
         <v>6676</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2971,13 +2986,13 @@
         <v>10186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3007,13 @@
         <v>6796</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3007,13 +3022,13 @@
         <v>2704</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -3022,13 +3037,13 @@
         <v>9500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3058,13 @@
         <v>153597</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -3058,13 +3073,13 @@
         <v>147293</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>449</v>
@@ -3073,13 +3088,13 @@
         <v>300889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3162,13 @@
         <v>685</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3162,13 +3177,13 @@
         <v>683</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3177,13 +3192,13 @@
         <v>1368</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3213,13 @@
         <v>20246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -3213,13 +3228,13 @@
         <v>19550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -3228,13 +3243,13 @@
         <v>39796</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3264,13 @@
         <v>21760</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -3264,13 +3279,13 @@
         <v>17661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -3279,13 +3294,13 @@
         <v>39421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3315,13 @@
         <v>570635</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H27" s="7">
         <v>820</v>
@@ -3315,7 +3330,7 @@
         <v>551087</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>164</v>
@@ -3336,7 +3351,7 @@
         <v>166</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3407,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E7B517-478E-47DD-9563-3A8D75A8C9C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B130954-5D7B-4777-943B-03EAF2E9EE45}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3429,7 +3444,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3542,7 +3557,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3557,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3572,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3602,13 @@
         <v>2754</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3602,10 +3617,10 @@
         <v>4344</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>176</v>
@@ -3620,10 +3635,10 @@
         <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3653,13 @@
         <v>3667</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3653,10 +3668,10 @@
         <v>5597</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>184</v>
@@ -3692,10 +3707,10 @@
         <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
@@ -3704,13 +3719,13 @@
         <v>131558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>389</v>
@@ -3719,13 +3734,13 @@
         <v>267011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,7 +3814,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3814,7 +3829,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3829,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3859,13 @@
         <v>3397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3859,13 +3874,13 @@
         <v>2882</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3874,13 +3889,13 @@
         <v>6279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3910,13 @@
         <v>9100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3910,13 +3925,13 @@
         <v>5687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -3925,13 +3940,13 @@
         <v>14787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3961,13 @@
         <v>243329</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>307</v>
@@ -3961,13 +3976,13 @@
         <v>213139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="M12" s="7">
         <v>643</v>
@@ -4071,7 +4086,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4080,13 +4095,13 @@
         <v>926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4116,13 @@
         <v>2946</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -4116,13 +4131,13 @@
         <v>2835</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -4131,13 +4146,13 @@
         <v>5781</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4167,13 @@
         <v>7158</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4167,13 +4182,13 @@
         <v>4417</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4182,13 +4197,13 @@
         <v>11575</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4218,13 @@
         <v>139194</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -4218,13 +4233,13 @@
         <v>142987</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>404</v>
@@ -4233,13 +4248,13 @@
         <v>282181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4296,7 @@
         <v>429</v>
       </c>
       <c r="N18" s="7">
-        <v>300462</v>
+        <v>300463</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -4295,7 +4310,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4313,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4322,7 +4337,7 @@
         <v>656</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
@@ -4337,7 +4352,7 @@
         <v>656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
@@ -4376,10 +4391,10 @@
         <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4391,10 +4406,10 @@
         <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,10 +4424,10 @@
         <v>5424</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>34</v>
@@ -4424,13 +4439,13 @@
         <v>4583</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -4439,10 +4454,10 @@
         <v>10008</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>264</v>
@@ -4460,13 +4475,13 @@
         <v>155824</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>202</v>
@@ -4475,13 +4490,13 @@
         <v>143132</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>430</v>
@@ -4490,13 +4505,13 @@
         <v>298956</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,7 +4585,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -4579,13 +4594,13 @@
         <v>1581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -4594,13 +4609,13 @@
         <v>1581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4630,13 @@
         <v>12651</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4630,13 +4645,13 @@
         <v>13332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>84</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4645,13 +4660,13 @@
         <v>25983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4681,13 @@
         <v>25349</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -4681,13 +4696,13 @@
         <v>20285</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>65</v>
@@ -4696,13 +4711,13 @@
         <v>45633</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4732,13 @@
         <v>673800</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H27" s="7">
         <v>909</v>
@@ -4732,13 +4747,13 @@
         <v>630816</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M27" s="7">
         <v>1866</v>
@@ -4747,13 +4762,13 @@
         <v>1304616</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4824,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4829,7 +4844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8C3D77-0375-41DB-92F0-FA8AD7873DF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F1A766-817B-4F97-A28C-7AA30CDF1A86}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4846,7 +4861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4959,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4974,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4989,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5019,13 @@
         <v>2566</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5019,13 +5034,13 @@
         <v>2509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5034,13 +5049,13 @@
         <v>5075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5070,13 @@
         <v>6514</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5070,13 +5085,13 @@
         <v>6006</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -5085,13 +5100,13 @@
         <v>12520</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5121,13 @@
         <v>107083</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -5121,13 +5136,13 @@
         <v>118388</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>350</v>
@@ -5136,13 +5151,13 @@
         <v>225471</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5231,7 +5246,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5246,7 +5261,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5276,13 @@
         <v>3181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5276,13 +5291,13 @@
         <v>2518</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5291,13 +5306,13 @@
         <v>5699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5327,13 @@
         <v>8962</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -5327,13 +5342,13 @@
         <v>7758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -5342,13 +5357,13 @@
         <v>16720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>336</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5378,13 @@
         <v>222847</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>166</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>291</v>
@@ -5378,13 +5393,13 @@
         <v>184533</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>617</v>
@@ -5393,13 +5408,13 @@
         <v>407380</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5488,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5488,7 +5503,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5503,7 +5518,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,7 +5539,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -5533,10 +5548,10 @@
         <v>4425</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>346</v>
@@ -5551,10 +5566,10 @@
         <v>347</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5584,13 @@
         <v>7457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5584,13 +5599,13 @@
         <v>7357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5599,10 +5614,10 @@
         <v>14815</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>355</v>
@@ -5635,13 +5650,13 @@
         <v>159508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>450</v>
@@ -5650,10 +5665,10 @@
         <v>320128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>363</v>
@@ -5712,7 +5727,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5730,7 +5745,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5745,7 +5760,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5760,7 +5775,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5790,13 @@
         <v>2309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5790,13 +5805,13 @@
         <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5805,7 +5820,7 @@
         <v>2926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>368</v>
@@ -5829,10 +5844,10 @@
         <v>370</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>371</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -5841,13 +5856,13 @@
         <v>7288</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -5856,13 +5871,13 @@
         <v>14430</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>375</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5892,13 @@
         <v>139109</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -5892,13 +5907,13 @@
         <v>145905</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -5907,13 +5922,13 @@
         <v>285015</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +6002,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6002,7 +6017,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6017,7 +6032,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6047,13 @@
         <v>9326</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -6050,10 +6065,10 @@
         <v>388</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -6062,13 +6077,13 @@
         <v>19395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6098,13 @@
         <v>30075</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -6098,13 +6113,13 @@
         <v>28409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>63</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -6113,13 +6128,13 @@
         <v>58484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>57</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6149,13 @@
         <v>629659</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H27" s="7">
         <v>915</v>
@@ -6149,13 +6164,13 @@
         <v>608336</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>402</v>
+        <v>311</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="M27" s="7">
         <v>1811</v>
@@ -6164,13 +6179,13 @@
         <v>1237994</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,7 +6241,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6246,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A45872-4F5F-4901-B7A4-E0BD07EB5723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C62E0C3-5099-489A-928B-580322859959}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6263,7 +6278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6376,7 +6391,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6391,7 +6406,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6406,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,7 +6442,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6436,13 +6451,13 @@
         <v>1929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6451,13 +6466,13 @@
         <v>1929</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6487,13 @@
         <v>394</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6487,13 +6502,13 @@
         <v>1029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6502,13 +6517,13 @@
         <v>1424</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6538,13 @@
         <v>17277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -6538,13 +6553,13 @@
         <v>13373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -6553,13 +6568,13 @@
         <v>30649</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,7 +6648,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6648,7 +6663,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6663,7 +6678,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6693,13 @@
         <v>1963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>435</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6693,13 +6708,13 @@
         <v>2054</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>90</v>
+        <v>438</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -6708,13 +6723,13 @@
         <v>4017</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6744,13 @@
         <v>1990</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6744,13 +6759,13 @@
         <v>1440</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -6759,13 +6774,13 @@
         <v>3430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6795,13 @@
         <v>28662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -6795,13 +6810,13 @@
         <v>24456</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -6810,13 +6825,13 @@
         <v>53118</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,7 +6905,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6899,13 +6914,13 @@
         <v>391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -6914,13 +6929,13 @@
         <v>391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,7 +6956,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -6950,13 +6965,13 @@
         <v>4592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>452</v>
+        <v>146</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6965,13 +6980,13 @@
         <v>4592</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +7001,13 @@
         <v>539</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7001,13 +7016,13 @@
         <v>1374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7016,13 +7031,13 @@
         <v>1913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,13 +7052,13 @@
         <v>34521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -7052,13 +7067,13 @@
         <v>24113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>40</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -7067,13 +7082,13 @@
         <v>58634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7144,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7147,7 +7162,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7162,7 +7177,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7177,7 +7192,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7207,13 @@
         <v>1420</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7207,13 +7222,13 @@
         <v>1917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>471</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -7222,13 +7237,13 @@
         <v>3336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7258,13 @@
         <v>1486</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7258,13 +7273,13 @@
         <v>597</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -7273,13 +7288,13 @@
         <v>2082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7309,13 @@
         <v>38176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7309,13 +7324,13 @@
         <v>22660</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>492</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -7324,13 +7339,13 @@
         <v>60835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,7 +7419,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7413,13 +7428,13 @@
         <v>391</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -7428,13 +7443,13 @@
         <v>391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7464,13 @@
         <v>3382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -7464,13 +7479,13 @@
         <v>10492</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>207</v>
+        <v>501</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7479,13 +7494,13 @@
         <v>13874</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7515,13 @@
         <v>4409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -7515,13 +7530,13 @@
         <v>4440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -7530,13 +7545,13 @@
         <v>8849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>511</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>25</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7566,13 @@
         <v>118634</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H27" s="7">
         <v>131</v>
@@ -7566,13 +7581,13 @@
         <v>84601</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>511</v>
+        <v>430</v>
       </c>
       <c r="M27" s="7">
         <v>307</v>
@@ -7581,13 +7596,13 @@
         <v>203235</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,7 +7658,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33434B37-6F1F-4A24-A767-F4AA898DAE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BCB9B5-D016-4F73-9AFA-CCADB306F29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EA2A48C-9ECF-4188-998B-804CFE98CD64}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{39603D82-3EB6-403A-8CA8-90FC95419B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="527">
   <si>
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,1525 +80,1546 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
     <t>Médico privado/particular</t>
   </si>
   <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
     <t>5,11%</t>
   </si>
   <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2016 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D36ECF-BB1C-4A0A-BF96-3EAA53482B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63243F3-03DF-4D88-AB75-7215CCB248C7}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,10 +2200,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>5473</v>
+        <v>2471</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2194,10 +2215,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>2471</v>
+        <v>5473</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -2230,31 +2251,31 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>5967</v>
+        <v>2411</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5967</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2411</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -2281,10 +2302,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" s="7">
-        <v>95593</v>
+        <v>95771</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2296,10 +2317,10 @@
         <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I7" s="7">
-        <v>95771</v>
+        <v>95593</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -2332,25 +2353,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>153</v>
+      </c>
+      <c r="D8" s="7">
+        <v>100653</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7">
         <v>161</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>107033</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7">
-        <v>153</v>
-      </c>
-      <c r="I8" s="7">
-        <v>100653</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2385,31 +2406,31 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>685</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>49</v>
@@ -2436,10 +2457,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>6066</v>
+        <v>7411</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>52</v>
@@ -2451,10 +2472,10 @@
         <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>7411</v>
+        <v>6066</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
@@ -2487,10 +2508,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>7776</v>
+        <v>8686</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>61</v>
@@ -2502,10 +2523,10 @@
         <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>8686</v>
+        <v>7776</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>64</v>
@@ -2538,10 +2559,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D12" s="7">
-        <v>215021</v>
+        <v>211401</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2553,10 +2574,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="I12" s="7">
-        <v>211401</v>
+        <v>215021</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2589,25 +2610,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>340</v>
+      </c>
+      <c r="D13" s="7">
+        <v>227498</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>346</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>229548</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>340</v>
-      </c>
-      <c r="I13" s="7">
-        <v>227498</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -2693,10 +2714,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>5197</v>
+        <v>2991</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>83</v>
@@ -2708,10 +2729,10 @@
         <v>85</v>
       </c>
       <c r="H15" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>2991</v>
+        <v>5197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>86</v>
@@ -2735,7 +2756,7 @@
         <v>90</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,34 +2765,34 @@
         <v>26</v>
       </c>
       <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3861</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1220</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3861</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2780,13 +2801,13 @@
         <v>5081</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,34 +2816,34 @@
         <v>35</v>
       </c>
       <c r="C17" s="7">
+        <v>143</v>
+      </c>
+      <c r="D17" s="7">
+        <v>96623</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>160</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>106425</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="7">
-        <v>143</v>
-      </c>
-      <c r="I17" s="7">
-        <v>96623</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -2831,13 +2852,13 @@
         <v>203047</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,25 +2867,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>154</v>
+      </c>
+      <c r="D18" s="7">
+        <v>103474</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="7">
         <v>169</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>112842</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="7">
-        <v>154</v>
-      </c>
-      <c r="I18" s="7">
-        <v>103474</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -2893,40 +2914,40 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>683</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2935,13 +2956,13 @@
         <v>683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,34 +2971,34 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6676</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="7">
         <v>5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>3510</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6676</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2986,13 +3007,13 @@
         <v>10186</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,34 +3022,34 @@
         <v>26</v>
       </c>
       <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2704</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="7">
         <v>10</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>6796</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="7">
-        <v>4</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2704</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -3037,13 +3058,13 @@
         <v>9500</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,34 +3073,34 @@
         <v>35</v>
       </c>
       <c r="C22" s="7">
+        <v>217</v>
+      </c>
+      <c r="D22" s="7">
+        <v>147293</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="7">
         <v>232</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>153597</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="7">
-        <v>217</v>
-      </c>
-      <c r="I22" s="7">
-        <v>147293</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>449</v>
@@ -3088,13 +3109,13 @@
         <v>300889</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,25 +3124,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>231</v>
+      </c>
+      <c r="D23" s="7">
+        <v>157357</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
         <v>247</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>163903</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
-        <v>231</v>
-      </c>
-      <c r="I23" s="7">
-        <v>157357</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -3159,31 +3180,31 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3192,13 +3213,13 @@
         <v>1368</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,34 +3228,34 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19550</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
         <v>29</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>20246</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="H25" s="7">
-        <v>30</v>
-      </c>
-      <c r="I25" s="7">
-        <v>19550</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -3243,13 +3264,13 @@
         <v>39796</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,34 +3279,34 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
+        <v>27</v>
+      </c>
+      <c r="D26" s="7">
+        <v>17661</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7">
         <v>33</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>21760</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H26" s="7">
-        <v>27</v>
-      </c>
-      <c r="I26" s="7">
-        <v>17661</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -3294,13 +3315,13 @@
         <v>39421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,34 +3330,34 @@
         <v>35</v>
       </c>
       <c r="C27" s="7">
+        <v>820</v>
+      </c>
+      <c r="D27" s="7">
+        <v>551087</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="7">
         <v>860</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>570635</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H27" s="7">
-        <v>820</v>
-      </c>
-      <c r="I27" s="7">
-        <v>551087</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M27" s="7">
         <v>1680</v>
@@ -3348,10 +3369,10 @@
         <v>76</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,25 +3381,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>878</v>
+      </c>
+      <c r="D28" s="7">
+        <v>588981</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
         <v>923</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>613326</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="7">
-        <v>878</v>
-      </c>
-      <c r="I28" s="7">
-        <v>588981</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -3407,7 +3428,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3427,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B130954-5D7B-4777-943B-03EAF2E9EE45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89BAC06-C537-4474-BD08-C9DE22889458}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3444,7 +3465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3557,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3572,7 +3593,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3587,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,25 +3617,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>2754</v>
+        <v>4344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>4344</v>
+        <v>2754</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>174</v>
@@ -3635,10 +3656,10 @@
         <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,34 +3668,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5597</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3667</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5597</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3683,13 +3704,13 @@
         <v>9264</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,34 +3719,34 @@
         <v>35</v>
       </c>
       <c r="C7" s="7">
+        <v>197</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131558</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="7">
         <v>192</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>135453</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="7">
-        <v>197</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131558</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>389</v>
@@ -3734,13 +3755,13 @@
         <v>267011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,25 +3770,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>211</v>
+      </c>
+      <c r="D8" s="7">
+        <v>141498</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7">
         <v>201</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>141874</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7">
-        <v>211</v>
-      </c>
-      <c r="I8" s="7">
-        <v>141498</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -3814,7 +3835,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3829,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3844,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,34 +3874,34 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2882</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3397</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2882</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3889,13 +3910,13 @@
         <v>6279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,34 +3925,34 @@
         <v>26</v>
       </c>
       <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5687</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="7">
         <v>13</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>9100</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5687</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -3940,13 +3961,13 @@
         <v>14787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,34 +3976,34 @@
         <v>35</v>
       </c>
       <c r="C12" s="7">
+        <v>307</v>
+      </c>
+      <c r="D12" s="7">
+        <v>213139</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="7">
         <v>336</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>243329</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" s="7">
-        <v>307</v>
-      </c>
-      <c r="I12" s="7">
-        <v>213139</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>643</v>
@@ -3991,13 +4012,13 @@
         <v>456469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,25 +4027,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>319</v>
+      </c>
+      <c r="D13" s="7">
+        <v>221709</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>354</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>255826</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>319</v>
-      </c>
-      <c r="I13" s="7">
-        <v>221709</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -4059,34 +4080,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>926</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4095,13 +4116,13 @@
         <v>926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,31 +4134,31 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>2946</v>
+        <v>2835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
       </c>
       <c r="I15" s="7">
-        <v>2835</v>
+        <v>2946</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -4146,13 +4167,13 @@
         <v>5781</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,34 +4182,34 @@
         <v>26</v>
       </c>
       <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4417</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>7158</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4417</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4197,13 +4218,13 @@
         <v>11575</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,34 +4233,34 @@
         <v>35</v>
       </c>
       <c r="C17" s="7">
+        <v>203</v>
+      </c>
+      <c r="D17" s="7">
+        <v>142987</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="7">
         <v>201</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>139194</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="7">
-        <v>203</v>
-      </c>
-      <c r="I17" s="7">
-        <v>142987</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>404</v>
@@ -4248,13 +4269,13 @@
         <v>282181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,25 +4284,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>214</v>
+      </c>
+      <c r="D18" s="7">
+        <v>151165</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>149298</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="7">
-        <v>214</v>
-      </c>
-      <c r="I18" s="7">
-        <v>151165</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -4310,40 +4331,40 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>656</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4352,13 +4373,13 @@
         <v>656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,10 +4388,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>3554</v>
+        <v>3271</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>253</v>
@@ -4382,19 +4403,19 @@
         <v>255</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>3271</v>
+        <v>3554</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4406,10 +4427,10 @@
         <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,10 +4439,10 @@
         <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>5424</v>
+        <v>4583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>259</v>
@@ -4430,22 +4451,22 @@
         <v>260</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="H21" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>4583</v>
+        <v>5424</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -4454,13 +4475,13 @@
         <v>10008</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,34 +4490,34 @@
         <v>35</v>
       </c>
       <c r="C22" s="7">
+        <v>202</v>
+      </c>
+      <c r="D22" s="7">
+        <v>143132</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="7">
         <v>228</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>155824</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="7">
-        <v>202</v>
-      </c>
-      <c r="I22" s="7">
-        <v>143132</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>430</v>
@@ -4505,13 +4526,13 @@
         <v>298956</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,25 +4541,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>215</v>
+      </c>
+      <c r="D23" s="7">
+        <v>151642</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
         <v>242</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>164802</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
-        <v>215</v>
-      </c>
-      <c r="I23" s="7">
-        <v>151642</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -4573,34 +4594,34 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -4609,13 +4630,13 @@
         <v>1581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,31 +4648,31 @@
         <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>12651</v>
+        <v>13332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>13332</v>
+        <v>12651</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4660,13 +4681,13 @@
         <v>25983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,34 +4696,34 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
+        <v>29</v>
+      </c>
+      <c r="D26" s="7">
+        <v>20285</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="7">
         <v>36</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>25349</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H26" s="7">
-        <v>29</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20285</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>65</v>
@@ -4711,13 +4732,13 @@
         <v>45633</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,34 +4747,34 @@
         <v>35</v>
       </c>
       <c r="C27" s="7">
+        <v>909</v>
+      </c>
+      <c r="D27" s="7">
+        <v>630816</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H27" s="7">
         <v>957</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>673800</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H27" s="7">
-        <v>909</v>
-      </c>
-      <c r="I27" s="7">
-        <v>630816</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M27" s="7">
         <v>1866</v>
@@ -4762,13 +4783,13 @@
         <v>1304616</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,25 +4798,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>959</v>
+      </c>
+      <c r="D28" s="7">
+        <v>666014</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
         <v>1012</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>711800</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="7">
-        <v>959</v>
-      </c>
-      <c r="I28" s="7">
-        <v>666014</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -4824,7 +4845,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4844,7 +4865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F1A766-817B-4F97-A28C-7AA30CDF1A86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A937A2-B0D0-4345-A13A-4E7366085F39}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4861,7 +4882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4974,7 +4995,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4989,7 +5010,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5004,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,31 +5037,31 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>2566</v>
+        <v>2509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>2509</v>
+        <v>2566</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5049,13 +5070,13 @@
         <v>5075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,31 +5088,31 @@
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>6514</v>
+        <v>6006</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>6006</v>
+        <v>6514</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -5100,13 +5121,13 @@
         <v>12520</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,34 +5136,34 @@
         <v>35</v>
       </c>
       <c r="C7" s="7">
+        <v>189</v>
+      </c>
+      <c r="D7" s="7">
+        <v>118388</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="7">
         <v>161</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>107083</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H7" s="7">
-        <v>189</v>
-      </c>
-      <c r="I7" s="7">
-        <v>118388</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>350</v>
@@ -5151,13 +5172,13 @@
         <v>225471</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,25 +5187,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>203</v>
+      </c>
+      <c r="D8" s="7">
+        <v>126903</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7">
         <v>175</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>116162</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7">
-        <v>203</v>
-      </c>
-      <c r="I8" s="7">
-        <v>126903</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -5231,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5246,7 +5267,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5261,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,34 +5291,34 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2518</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3181</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2518</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5306,13 +5327,13 @@
         <v>5699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,34 +5342,34 @@
         <v>26</v>
       </c>
       <c r="C11" s="7">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7758</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H11" s="7">
         <v>15</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>8962</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7758</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -5357,13 +5378,13 @@
         <v>16720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,34 +5393,34 @@
         <v>35</v>
       </c>
       <c r="C12" s="7">
+        <v>291</v>
+      </c>
+      <c r="D12" s="7">
+        <v>184533</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H12" s="7">
         <v>326</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>222847</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H12" s="7">
-        <v>291</v>
-      </c>
-      <c r="I12" s="7">
-        <v>184533</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>339</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>617</v>
@@ -5408,13 +5429,13 @@
         <v>407380</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,25 +5444,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>307</v>
+      </c>
+      <c r="D13" s="7">
+        <v>194809</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>346</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>234990</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>307</v>
-      </c>
-      <c r="I13" s="7">
-        <v>194809</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -5488,7 +5509,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5503,7 +5524,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5518,7 +5539,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,34 +5548,34 @@
         <v>16</v>
       </c>
       <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4425</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>1270</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="J15" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="7">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4425</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -5563,13 +5584,13 @@
         <v>5696</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,31 +5602,31 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>7457</v>
+        <v>7357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>7357</v>
+        <v>7457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5614,13 +5635,13 @@
         <v>14815</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,34 +5650,34 @@
         <v>35</v>
       </c>
       <c r="C17" s="7">
+        <v>228</v>
+      </c>
+      <c r="D17" s="7">
+        <v>159508</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" s="7">
         <v>222</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>160620</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H17" s="7">
-        <v>228</v>
-      </c>
-      <c r="I17" s="7">
-        <v>159508</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>450</v>
@@ -5665,13 +5686,13 @@
         <v>320128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,25 +5701,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>246</v>
+      </c>
+      <c r="D18" s="7">
+        <v>171291</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="7">
         <v>235</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>169347</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="7">
-        <v>246</v>
-      </c>
-      <c r="I18" s="7">
-        <v>171291</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -5727,7 +5748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5745,7 +5766,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5760,7 +5781,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5775,7 +5796,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,34 +5805,34 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>617</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2309</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>617</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5820,13 +5841,13 @@
         <v>2926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,31 +5859,31 @@
         <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>7142</v>
+        <v>7288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>371</v>
+        <v>212</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>7288</v>
+        <v>7142</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -5871,13 +5892,13 @@
         <v>14430</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,34 +5907,34 @@
         <v>35</v>
       </c>
       <c r="C22" s="7">
+        <v>207</v>
+      </c>
+      <c r="D22" s="7">
+        <v>145905</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H22" s="7">
         <v>187</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>139109</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H22" s="7">
-        <v>207</v>
-      </c>
-      <c r="I22" s="7">
-        <v>145905</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -5922,13 +5943,13 @@
         <v>285015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,25 +5958,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>218</v>
+      </c>
+      <c r="D23" s="7">
+        <v>153810</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
         <v>200</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>148560</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
-        <v>218</v>
-      </c>
-      <c r="I23" s="7">
-        <v>153810</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -6002,7 +6023,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6017,7 +6038,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6032,7 +6053,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,34 +6062,34 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10070</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="7">
         <v>14</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>9326</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10070</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -6077,13 +6098,13 @@
         <v>19395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>18</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,34 +6113,34 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7">
+        <v>28409</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" s="7">
         <v>46</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>30075</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H26" s="7">
-        <v>43</v>
-      </c>
-      <c r="I26" s="7">
-        <v>28409</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -6128,13 +6149,13 @@
         <v>58484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,34 +6164,34 @@
         <v>35</v>
       </c>
       <c r="C27" s="7">
+        <v>915</v>
+      </c>
+      <c r="D27" s="7">
+        <v>608336</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H27" s="7">
         <v>896</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>629659</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H27" s="7">
-        <v>915</v>
-      </c>
-      <c r="I27" s="7">
-        <v>608336</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M27" s="7">
         <v>1811</v>
@@ -6179,13 +6200,13 @@
         <v>1237994</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,25 +6215,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>974</v>
+      </c>
+      <c r="D28" s="7">
+        <v>646814</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
         <v>956</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>669060</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="7">
-        <v>974</v>
-      </c>
-      <c r="I28" s="7">
-        <v>646814</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -6241,7 +6262,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C62E0C3-5099-489A-928B-580322859959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022E58AD-A78D-4635-879F-40EA5221F7C8}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6278,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6391,7 +6412,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6406,7 +6427,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6421,7 +6442,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,49 +6451,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1929</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1929</v>
+        <v>1950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,49 +6502,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>394</v>
+        <v>1027</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>251</v>
+        <v>422</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1029</v>
+        <v>423</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1424</v>
+        <v>1450</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>422</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>426</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,49 +6553,49 @@
         <v>35</v>
       </c>
       <c r="C7" s="7">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13318</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="7">
         <v>37</v>
       </c>
-      <c r="D7" s="7">
-        <v>17277</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H7" s="7">
-        <v>27</v>
-      </c>
       <c r="I7" s="7">
-        <v>13373</v>
+        <v>18024</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>30649</v>
+        <v>31342</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,25 +6604,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16295</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7">
         <v>38</v>
       </c>
-      <c r="D8" s="7">
-        <v>17671</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7">
-        <v>32</v>
-      </c>
       <c r="I8" s="7">
-        <v>16331</v>
+        <v>18447</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -6616,7 +6637,7 @@
         <v>70</v>
       </c>
       <c r="N8" s="7">
-        <v>34002</v>
+        <v>34742</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -6648,7 +6669,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6663,7 +6684,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6678,7 +6699,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,49 +6708,49 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2102</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>1963</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
       <c r="I10" s="7">
-        <v>2054</v>
+        <v>2209</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>438</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>4017</v>
+        <v>4310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,49 +6759,49 @@
         <v>26</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1389</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
-        <v>1990</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
       <c r="I11" s="7">
-        <v>1440</v>
+        <v>2023</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>308</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>3430</v>
+        <v>3412</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>446</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>451</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,49 +6810,49 @@
         <v>35</v>
       </c>
       <c r="C12" s="7">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7">
+        <v>24708</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
-        <v>28662</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H12" s="7">
-        <v>37</v>
-      </c>
       <c r="I12" s="7">
-        <v>24456</v>
+        <v>29496</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>458</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>53118</v>
+        <v>54203</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,25 +6861,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28198</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>53</v>
       </c>
-      <c r="D13" s="7">
-        <v>32614</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>43</v>
-      </c>
       <c r="I13" s="7">
-        <v>27950</v>
+        <v>33728</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -6873,7 +6894,7 @@
         <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>60564</v>
+        <v>61925</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -6893,34 +6914,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>391</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -6929,13 +6950,13 @@
         <v>391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,49 +6965,49 @@
         <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>5377</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4592</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
       </c>
       <c r="N15" s="7">
-        <v>4592</v>
+        <v>5377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,49 +7016,49 @@
         <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>539</v>
+        <v>1453</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1374</v>
+        <v>535</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1913</v>
+        <v>1988</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,49 +7067,49 @@
         <v>35</v>
       </c>
       <c r="C17" s="7">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7">
+        <v>24075</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H17" s="7">
         <v>43</v>
       </c>
-      <c r="D17" s="7">
-        <v>34521</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
       <c r="I17" s="7">
-        <v>24113</v>
+        <v>36336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
       </c>
       <c r="N17" s="7">
-        <v>58634</v>
+        <v>60411</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,25 +7118,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7">
+        <v>31296</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="7">
-        <v>41</v>
-      </c>
       <c r="I18" s="7">
-        <v>30469</v>
+        <v>36871</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -7130,7 +7151,7 @@
         <v>85</v>
       </c>
       <c r="N18" s="7">
-        <v>65529</v>
+        <v>68167</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -7144,7 +7165,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7162,7 +7183,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7177,7 +7198,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7192,7 +7213,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,49 +7222,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1886</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>1420</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>1428</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1917</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>3336</v>
+        <v>3314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,49 +7273,49 @@
         <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1486</v>
+        <v>590</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>597</v>
+        <v>1508</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>2082</v>
+        <v>2098</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>273</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,49 +7324,49 @@
         <v>35</v>
       </c>
       <c r="C22" s="7">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7">
+        <v>22050</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H22" s="7">
         <v>49</v>
       </c>
-      <c r="D22" s="7">
-        <v>38176</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="H22" s="7">
-        <v>33</v>
-      </c>
       <c r="I22" s="7">
-        <v>22660</v>
+        <v>39609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
       </c>
       <c r="N22" s="7">
-        <v>60835</v>
+        <v>61659</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,25 +7375,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>37</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24526</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
         <v>53</v>
       </c>
-      <c r="D23" s="7">
-        <v>41081</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
-        <v>37</v>
-      </c>
       <c r="I23" s="7">
-        <v>25173</v>
+        <v>42546</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -7387,7 +7408,7 @@
         <v>90</v>
       </c>
       <c r="N23" s="7">
-        <v>66253</v>
+        <v>67071</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>45</v>
@@ -7407,34 +7428,34 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>391</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -7443,13 +7464,13 @@
         <v>391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>87</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,49 +7479,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11315</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
-        <v>3382</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
       <c r="I25" s="7">
-        <v>10492</v>
+        <v>3637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>13874</v>
+        <v>14952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>504</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,46 +7533,46 @@
         <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>4409</v>
+        <v>4458</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>4440</v>
+        <v>4490</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>399</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
       </c>
       <c r="N26" s="7">
-        <v>8849</v>
+        <v>8948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>511</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,49 +7581,49 @@
         <v>35</v>
       </c>
       <c r="C27" s="7">
+        <v>131</v>
+      </c>
+      <c r="D27" s="7">
+        <v>84150</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H27" s="7">
         <v>176</v>
       </c>
-      <c r="D27" s="7">
-        <v>118634</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H27" s="7">
-        <v>131</v>
-      </c>
       <c r="I27" s="7">
-        <v>84601</v>
+        <v>123465</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="M27" s="7">
         <v>307</v>
       </c>
       <c r="N27" s="7">
-        <v>203235</v>
+        <v>207615</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,25 +7632,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>153</v>
+      </c>
+      <c r="D28" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
         <v>188</v>
       </c>
-      <c r="D28" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="7">
-        <v>153</v>
-      </c>
       <c r="I28" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -7644,7 +7665,7 @@
         <v>341</v>
       </c>
       <c r="N28" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>45</v>
@@ -7658,7 +7679,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
